--- a/tests/system_test_3.xlsx
+++ b/tests/system_test_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="112">
   <si>
     <t>Номер</t>
   </si>
@@ -31,328 +31,307 @@
     <t>Результат</t>
   </si>
   <si>
-    <t>/Проект/Уши/прижатые Уши/Swc8kQlPTYY.jpg</t>
+    <t>/Проект/Веки/Закрытые снаружи/BKrDFFm6d1Q.jpg</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t xml:space="preserve">Прижатые уши: </t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/tah364ItW2Y.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/VnwSMMP8Dlc.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/eRWlvSeMfdM.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/DRbIRVNR6vs.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/450TytuJT94.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/GBhErHx-9_s.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/wm-models-just-wm-management-paris-mannequin-mannequinat-fashion-famous-model-agency-catwalk-defiles-mode-beauty-fashion-consulting-endorsement-beaute-agence-modeling-celebrite-cel154.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/j8dz6mzN-8U.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/R2aJwcwOKtA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/ebKvx_8-tQY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/qdaf71_efGI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/V0dHNCPmYxw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/QLYzCzPrRU8.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/EODhQse3zBw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/DNfG0EfLzkw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/e3UXUy4ii8E.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/NHcd8vuHU2c.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/OWLQsIu-xDk.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/GTY0UYfvFDQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/nXftx9Cvv7Q.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/qFJ2jeCK3G4.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/QXjMWRbfX_Y.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/hLv9nmqvkU4.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/GkjoMEKxVLI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/eSjRhE-IMEM.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/lnPN-r2Ad5Y.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/mFG_MkBkNqg.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/pfHOmSDyLl8.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/rVfyYKqCFX0.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/jXqWP4JyYe0.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/s1200 (1).jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/s1200.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/hairstyle_harticle.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/XfgvPdmg2Sc.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/z_5c369b35.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/peZ9CV0vp4Q.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/zClNZHFTTIo.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/bQrlaWtfrJE.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/5ABOL1RhZS0.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/c46Xrd522hY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/0fZdENAfTCQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/oaIFu-ZYmhA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/оо.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/260773_8_i_008.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/ilz6Ya3WJhs (1).jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/GMVbE-aN5OU.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/2-k66viSsk4.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/zeBWMUeEYOc.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/Foto_lica_devushki_31_09164114.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/HtMKa60BabU.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/s1200 (2).jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/AQqTeef2aVQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/waLIrr4M2Lc.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/3k2wnjg1JBI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/fpb9U5quafI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/2z87Y5FjoXQ.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/ihDH3hryt4M.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/sRe2kAkIRko.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/raspolozheniye-ushey-prizhatyje-ushi.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/gal-gadot-portret-litso-aktrisa-znamenitost.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/FWgy01AGkDw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/J5SLhnAesIA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/0g4STCoCxaA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/itQ7v09sRbk.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/dz78Ywi5WoA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/CQYbj-VbZiw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/hx6PGOfgGRg.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/jkdYK3bhBBg.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/u3hRvEWhIow.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/qQ2GRFeTvgk.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/JF3SZ-2VpKg.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/3r3qb0T8BaE.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/heidi_klum22.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/8O1CV8IgioA.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/ERBmRA7bPYM.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/4lBdW43cRos.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/1NFYh2_8foY.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/Resnicy-iz-norki-Romanova-Tati.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/z_aa1a667f.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/1L_z6aKYJeo.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/0dW7IBkKQuM.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/8cdaIS46bBc.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/TM6mEBBTAQw.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/вв0.jpeg</t>
+    <t xml:space="preserve">Веки закрытые снаружи: </t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/llG7Fc_KgoQ.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/-v0_z9k-ss4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/r9cUGEZIhEM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/dY-LUYxpjxg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/AEyduJUBoSU.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/0f8IxRK-OBk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/1DTIsEaiDRE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/jGWh4qseu54.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/bzeGfLsYev4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/QgFOXZitb-0.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/gSRrnLlSqKQ.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/dYaQPABW0XY (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/VaTE--jpcBc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/mxZQqVciALo.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/4MIrkNmxObA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/gcqn1HsNY2c.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/4B_W674eoUk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/nNmxsmCoJtE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/c3w1cgHukdk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/la8Hdkmahug.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/PTD-X30gX3A.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/9eWyMpydOhE (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/amPjgKVkUkA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/E02AtZ5VkIs.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/yE3jE2Qi6xo.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/EqvwA_qa5ok.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/p7kByeJ8p-g (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/F2jB6nAuXzI.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/zkJpVrZRSN0.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/vUlEJZqc4io.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/rP97IbGf33o.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/1XSYkIE7L3Q.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/4kRCen6Spbc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/ncmrTamaMno.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/rANt5gE0cMk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/ZJ92EFeI8Jg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/aUtqbk4SUMU.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/0OqUUHs0ikg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/1wFy2gZd7D4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/wHLtVKJCAOc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/g3cRGWTk9hw.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/bYdEUU6KBWI.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/PSma_-PhIg8.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/WN7yQItj5yM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/IeYzLhWwgnE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/rA6sabB9ahE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/TabfTzK6k7E.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/U53KyLHiEm4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/rfre9eQneVM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/MU9LBZHr-dc.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/OrJqXmG_4-w.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/sGZGZq4uNqA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/_VdSak2xdZM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/q2uY8HdyFAI.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/qXsNDehfVsA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/jyWt6M2n7OI.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/cKA6PiA9FjE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/0X6Fex97av8.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/zDBAj5X8pLI.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/A3X7iE3IKks.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/4v7cbsiVYx0.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/o-S8Gm6ZXEM (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/cXSUG0BAk-4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/5X-D5CQA9gs.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/Dqa3ZY9B2HE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/6ue27O0ldCA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/03k2GyLf0QM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/T9wq6O01xuA.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/kch_nHUlbb8.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/jqZMJWPXsZQ.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/nROvwv5AlSE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/wsaCvl4r1GM.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/sR9h_tZ_N5E.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/1wC4fe9shyg.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/NKGTv5e78q4.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/wPmoLiuwIYk.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/B-NobrhJ-no.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/kgqki9QV9HE.jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/ltU3CZaJl0Q (1).jpg</t>
+  </si>
+  <si>
+    <t>/Проект/Веки/Закрытые снаружи/NgBh_9ppPH8.jpg</t>
   </si>
   <si>
     <t>Лицо не найдено</t>
   </si>
   <si>
-    <t>/Проект/Уши/прижатые Уши/COIESmAzWSk.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/I-7jK2Pw.jpeg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/xSJJ1MOtlLs.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/BPbT4bUgTVI.jpg</t>
-  </si>
-  <si>
-    <t>/Проект/Уши/прижатые Уши/x_3c2527ac.jpg</t>
+    <t>/Проект/Веки/Закрытые снаружи/Zz9S_kFxzak.jpg</t>
   </si>
   <si>
     <t>Найдено больше одного лица</t>
   </si>
   <si>
-    <t>/Проект/Уши/прижатые Уши/rZ3P55s92jE.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/2Nv7vct4bHE.jpg </t>
+    <t>/Проект/Веки/Закрытые снаружи/Tn0VlzQfqAk.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/5ucZWUbE9KM.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Неправильное определение точек лица. Неизвестная причина. </t>
   </si>
   <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/4zPdSU4hskM.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/0647be740506c6db12b4093564a2cc6c.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Неправильное определение точек лица. Плохое освещение. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/FghhuZDoQEY.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/iYOYY5KFVtw.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/ncxLltmCVEY.jpg </t>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/cLfwwph35LE.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Неправильное определение точек лица. Лицо закрыто другими объектами. </t>
   </si>
   <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/oaxzdq1J69Y.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/tuJMYfpddM4.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/z5U14aDKvaw.jpg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Проект/Уши/прижатые Уши/YoiCvFc3oC8.jpg </t>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/D3AwF--bdk8.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/Gxwk1YkBak8.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/iKai1TBOWMc.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/KNZfLChyrxc.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/lq9deBD66Io.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/QIw5PM1k2g8.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/rjFfJr1QxC0.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/uXKZpwICeIk.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/V7aZTSpLWJs.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Проект/Веки/Закрытые снаружи/XZcIUuBvAEo.jpg </t>
   </si>
   <si>
     <t>Среднее значение</t>
@@ -710,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>60.55089139853683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>57.3431405141844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>51.44652842497669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>64.97292857142858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>18.56971507352941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>53.52778409090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>33.91867750471219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>56.0724768148385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>52.2645697167756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>36.76852880658436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>66.00420321637426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>35.70823122529644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <v>66.79067416958043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>10.72801569645285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="E17">
-        <v>47.31034482758622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>36.03457249912535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>73.73954762689519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>31.67593023255814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>59.08322368421054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <v>68.72740816523368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>42.53791866028709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>70.67610254329004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>67.00501633986929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>31.21172745694022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>26.58287675865801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>34.03750177254679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>96.07613751216591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>32.72480867346939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>47.40092719780219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>99.62337559802182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>43.5712037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>48.45359848484847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,7 +1321,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>47.34399366471735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>90.79560168362404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="E39">
-        <v>47.76041666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70.47492283950618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1410,7 +1389,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70.89322916666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1427,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>32.16538296961917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1444,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="E43">
-        <v>51.93652982026144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1461,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>53.62215277777779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1478,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="E45">
-        <v>94.39099364791289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1495,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1512,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <v>60.82941595441596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1529,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>44.68595041322314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1546,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="E49">
-        <v>58.68725845410628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1563,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>95.07861030086966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1580,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="E51">
-        <v>60.55593844120722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1597,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="E52">
-        <v>37.31272321428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1614,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1631,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="E54">
-        <v>80.46635732841126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1648,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="E55">
-        <v>43.65194706994329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1665,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="E56">
-        <v>31.55340982546865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1682,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="E57">
-        <v>58.69595809091339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1699,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="E58">
-        <v>30.77224264705882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1716,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="E59">
-        <v>64.18986742424242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1733,7 +1712,7 @@
         <v>7</v>
       </c>
       <c r="E60">
-        <v>35.16038011695908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1750,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="E61">
-        <v>81.03226273148147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1767,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="E62">
-        <v>33.33791484096072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1784,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="E63">
-        <v>51.91622411235087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1801,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="E64">
-        <v>97.59863119336804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1818,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <v>82.03505291005291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1835,7 +1814,7 @@
         <v>7</v>
       </c>
       <c r="E66">
-        <v>42.53791866028709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1852,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="E67">
-        <v>31.58359263869133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1869,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="E68">
-        <v>85.79077038861521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1886,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="E69">
-        <v>57.10441545039069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1903,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="E70">
-        <v>54.14341856060605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1920,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="E71">
-        <v>87.67079293628811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1937,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="E72">
-        <v>40.71180555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1954,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="E73">
-        <v>33.24221813725491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1971,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="E74">
-        <v>32.07956764705882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1988,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="E75">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2005,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="E76">
-        <v>53.31944444444446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2022,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="E77">
-        <v>57.6031279178338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2039,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="E78">
-        <v>31.61634615384615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2056,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <v>89.52034718846217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2073,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="E80">
-        <v>85.22634939153303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2090,75 +2069,51 @@
         <v>7</v>
       </c>
       <c r="E81">
-        <v>86.53902879035857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82">
-        <v>43.76932384064737</v>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>69.62783347863993</v>
+      <c r="B83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84">
-        <v>56.49322916666667</v>
+      <c r="B84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
-        <v>53.94151549508692</v>
+      <c r="B85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2166,10 +2121,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2177,10 +2132,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2188,10 +2143,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2199,10 +2154,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2210,10 +2165,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2221,10 +2176,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2232,10 +2187,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2243,10 +2198,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2254,10 +2209,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2265,10 +2220,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2279,121 +2234,55 @@
         <v>105</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103">
-        <v>58.57860715606822</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>115</v>
-      </c>
-      <c r="B105">
-        <v>10.72801569645285</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>118</v>
-      </c>
-      <c r="B108">
-        <v>56.0724768148385</v>
+      <c r="B102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
